--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764D2BF-AECA-EE47-BF0E-E8877BA67033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1C41D-1788-DD4D-BD62-B2AE9C0E2A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
+    <workbookView xWindow="1200" yWindow="2520" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Chat</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>GREETING I'm fine USER! :)  How can I help you today?</t>
+  </si>
+  <si>
+    <t>Okay USER :) I just need some information for the reservation.</t>
+  </si>
+  <si>
+    <t>For the reservation, I just need confirmation details from you USER :)</t>
+  </si>
+  <si>
+    <t>Awesome USER! For the reservation confirmation, I just need some details.</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +544,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1C41D-1788-DD4D-BD62-B2AE9C0E2A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE783C-7907-9846-BE06-12C9B20DB689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2520" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
+    <workbookView xWindow="260" yWindow="1860" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Chat</t>
   </si>
@@ -75,13 +75,19 @@
     <t>GREETING I'm fine USER! :)  How can I help you today?</t>
   </si>
   <si>
-    <t>Okay USER :) I just need some information for the reservation.</t>
-  </si>
-  <si>
-    <t>For the reservation, I just need confirmation details from you USER :)</t>
-  </si>
-  <si>
-    <t>Awesome USER! For the reservation confirmation, I just need some details.</t>
+    <t xml:space="preserve">Okay USER :) I just need some information in order to make an appointment inquiry. </t>
+  </si>
+  <si>
+    <t>For the appointment inquiry, I just need to confirmation details from you USER :)</t>
+  </si>
+  <si>
+    <t>Awesome USER! For the appointment inquiry process, I just need some details from you :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay Thank you CALLER! Now I'm going to make an appointment inquiry for USER for GSERVICE on APPDATE and contact number is PHONUM. Shall I confirm this? Or do you need to make changes? </t>
+  </si>
+  <si>
+    <t>Okay. Now could you please provide ONE preferred  date, required service and contact number?</t>
   </si>
 </sst>
 </file>
@@ -117,10 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.5" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -549,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +574,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE783C-7907-9846-BE06-12C9B20DB689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03513C39-D760-004E-9EBA-B13E20BCEE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1860" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
+    <workbookView xWindow="760" yWindow="1100" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Chat</t>
   </si>
@@ -84,10 +84,25 @@
     <t>Awesome USER! For the appointment inquiry process, I just need some details from you :)</t>
   </si>
   <si>
-    <t xml:space="preserve">Okay Thank you CALLER! Now I'm going to make an appointment inquiry for USER for GSERVICE on APPDATE and contact number is PHONUM. Shall I confirm this? Or do you need to make changes? </t>
-  </si>
-  <si>
-    <t>Okay. Now could you please provide ONE preferred  date, required service and contact number?</t>
+    <t>Sorry CALLER! Could you please tell me again the preferred  date, required service and contact number?</t>
+  </si>
+  <si>
+    <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
+  </si>
+  <si>
+    <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
+  </si>
+  <si>
+    <t>Sorry, Preference date is not detected! Please type at least one preference date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you CALLER for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+  </si>
+  <si>
+    <t>Okay Thank you CALLER! Now I'm going to make an appointment inquiry for USER for GSERVICE on APPDATE and contact number is PHONUM. Shall I confirm this?</t>
+  </si>
+  <si>
+    <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
   </si>
 </sst>
 </file>
@@ -445,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +594,7 @@
     </row>
     <row r="16" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>51</v>
@@ -587,10 +602,50 @@
     </row>
     <row r="17" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03513C39-D760-004E-9EBA-B13E20BCEE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FA0D3-4599-2247-9CBF-A944A71CDEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1100" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
+    <workbookView xWindow="1980" yWindow="700" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Chat</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay USER :) I just need some information in order to make an appointment change. </t>
+  </si>
+  <si>
+    <t>For the appointment change, I just need to confirmation details from you USER :)</t>
+  </si>
+  <si>
+    <t>For the appointment change process, I just need some details from you :)</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -646,6 +655,30 @@
       </c>
       <c r="B22" s="1">
         <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FA0D3-4599-2247-9CBF-A944A71CDEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F4AB9-46CC-D54A-AA57-387D02E871E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="700" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
+    <workbookView xWindow="200" yWindow="540" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Chat</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>For the appointment change process, I just need some details from you :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you CALLER for the confirmation. Our staff member will check the appointment change availabilty and get back to as soon as possible. :) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay USER :) I just need some information in order to cancel an appointment. </t>
+  </si>
+  <si>
+    <t>For the appointment cancelation, I just need to get confirmation details from you USER :)</t>
+  </si>
+  <si>
+    <t>For the appointment cancelation, I just need some details from you :)</t>
+  </si>
+  <si>
+    <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
+  </si>
+  <si>
+    <t>Okay Thank you CALLER! Now I'm going to make an appointment cancelation inquiry for USER and contact number is PHONUM. Shall I confirm this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you CALLER for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
+  </si>
+  <si>
+    <t>Sorry CALLER! Could you please tell me again the contact number which provided for the appointment?</t>
+  </si>
+  <si>
+    <t>Okay. Now could you please provide preferred date and contact number for the new appointment?</t>
+  </si>
+  <si>
+    <t>Okay Thank you CALLER! Now I'm going to make an appointment change inquiry for USER on APPDATE and contact number is PHONUM. Shall I confirm this?</t>
+  </si>
+  <si>
+    <t>Sorry CALLER! Could you please tell me again the preferred  date and contact number for the new appointment?</t>
+  </si>
+  <si>
+    <t>Thank you USER! GREET!</t>
   </si>
 </sst>
 </file>
@@ -469,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +717,129 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final Project/ReplyChat.xlsx
+++ b/Final Project/ReplyChat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F4AB9-46CC-D54A-AA57-387D02E871E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AAD7E6-4033-624F-9CAF-25ADAF10D01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="540" windowWidth="25040" windowHeight="13800" xr2:uid="{3D8D6C74-952E-7048-BA61-D1F83CBA65A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Chat</t>
   </si>
@@ -87,15 +87,6 @@
     <t>Sorry CALLER! Could you please tell me again the preferred  date, required service and contact number?</t>
   </si>
   <si>
-    <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
-  </si>
-  <si>
-    <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
-  </si>
-  <si>
-    <t>Sorry, Preference date is not detected! Please type at least one preference date.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thank you CALLER for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
   </si>
   <si>
@@ -148,6 +139,21 @@
   </si>
   <si>
     <t>Thank you USER! GREET!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, Required service is not found on the salon product list! Could you please try again with different rephrase/similar name or general name for the particular service ? </t>
+  </si>
+  <si>
+    <t>Sorry, Phone number is not detected! Could you please type your phone number again?</t>
+  </si>
+  <si>
+    <t>Sorry, Phone number is not detected! Could you please type again your phone number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, Preference date is not detected! Could you please type again your preference date? Eg :- January 1st, 1st January, 1/1/2021, Next Saturday </t>
+  </si>
+  <si>
+    <t>Sorry CALLER!, Phone number is not detected! Could you please type your phone number again? Eg:- 0777885678, 0717083144, …</t>
   </si>
 </sst>
 </file>
@@ -507,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093E48-F09F-134F-8CED-A66EC11B29AB}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +645,7 @@
     </row>
     <row r="16" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>51</v>
@@ -647,7 +653,7 @@
     </row>
     <row r="17" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>52</v>
@@ -655,7 +661,7 @@
     </row>
     <row r="18" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>53</v>
@@ -669,25 +675,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>57</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -703,7 +709,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -711,7 +717,7 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -719,7 +725,7 @@
     </row>
     <row r="26" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>61</v>
@@ -727,7 +733,7 @@
     </row>
     <row r="27" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
         <v>62</v>
@@ -735,7 +741,7 @@
     </row>
     <row r="28" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>63</v>
@@ -743,23 +749,23 @@
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>67</v>
@@ -767,7 +773,7 @@
     </row>
     <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
@@ -775,7 +781,7 @@
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -783,7 +789,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
@@ -791,7 +797,7 @@
     </row>
     <row r="35" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>71</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="36" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1">
         <v>72</v>
@@ -807,7 +813,7 @@
     </row>
     <row r="37" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1">
         <v>73</v>
@@ -815,15 +821,15 @@
     </row>
     <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>75</v>
@@ -831,7 +837,7 @@
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1">
         <v>8</v>
